--- a/Code/Results/Cases/Case_3_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_117/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6004919798730555</v>
+        <v>0.2007517892934061</v>
       </c>
       <c r="C2">
-        <v>0.07286126528943271</v>
+        <v>0.04681665022438608</v>
       </c>
       <c r="D2">
-        <v>0.05637968420548845</v>
+        <v>0.03026650136908415</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5817188912135336</v>
+        <v>0.7715222594088544</v>
       </c>
       <c r="G2">
-        <v>0.0008035003104267141</v>
+        <v>0.002432968549593463</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.576992106547749</v>
+        <v>0.1710339568456334</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.744434653506673</v>
+        <v>0.8830009790449651</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.745976067982298</v>
+        <v>2.668328567852228</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5244327926733376</v>
+        <v>0.1773979687425253</v>
       </c>
       <c r="C3">
-        <v>0.07056289916564396</v>
+        <v>0.04563686530794797</v>
       </c>
       <c r="D3">
-        <v>0.051820840240282</v>
+        <v>0.02852255846774199</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5487122527590387</v>
+        <v>0.7677976138000417</v>
       </c>
       <c r="G3">
-        <v>0.0008075516632141563</v>
+        <v>0.002435432073174725</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5096959186109444</v>
+        <v>0.1491899232329814</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.336139061283475</v>
+        <v>0.7864211113928548</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.686185635461612</v>
+        <v>2.669398983641855</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.477657776937022</v>
+        <v>0.1630576458209703</v>
       </c>
       <c r="C4">
-        <v>0.06911850465770186</v>
+        <v>0.04490388609007567</v>
       </c>
       <c r="D4">
-        <v>0.04899229120270832</v>
+        <v>0.02743928019702224</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5295867021942868</v>
+        <v>0.7659605768555195</v>
       </c>
       <c r="G4">
-        <v>0.0008101052713604013</v>
+        <v>0.002437023900148529</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4681823662164533</v>
+        <v>0.1357270085283773</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.094183296434636</v>
+        <v>0.7276523867524674</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.653122383511089</v>
+        <v>2.671518554298189</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4585751026429392</v>
+        <v>0.1572140724234572</v>
       </c>
       <c r="C5">
-        <v>0.06852261900073842</v>
+        <v>0.04460308260204471</v>
       </c>
       <c r="D5">
-        <v>0.04783257610375102</v>
+        <v>0.02699473200942748</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5220604620592297</v>
+        <v>0.7653249729295908</v>
       </c>
       <c r="G5">
-        <v>0.0008111633004528511</v>
+        <v>0.002437692567007301</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4512167879951079</v>
+        <v>0.1302285189044454</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.997407996117389</v>
+        <v>0.7038312175626658</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.640508988409408</v>
+        <v>2.672749496696582</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4554050596273242</v>
+        <v>0.1562437789893778</v>
       </c>
       <c r="C6">
-        <v>0.06842326113809349</v>
+        <v>0.04455300855323685</v>
       </c>
       <c r="D6">
-        <v>0.04763958877317975</v>
+        <v>0.02692072877599117</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5208263615500996</v>
+        <v>0.7652262527364542</v>
       </c>
       <c r="G6">
-        <v>0.0008113400589974725</v>
+        <v>0.002437804807559507</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4483967377771734</v>
+        <v>0.1293147735785425</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.98143873637045</v>
+        <v>0.6998832577335889</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.638464904712976</v>
+        <v>2.672976056740566</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4774005119981268</v>
+        <v>0.1629788358104065</v>
       </c>
       <c r="C7">
-        <v>0.06911049652441648</v>
+        <v>0.04489983781989793</v>
       </c>
       <c r="D7">
-        <v>0.04897667905526504</v>
+        <v>0.02743329738133582</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5294841416491067</v>
+        <v>0.7659515475085072</v>
       </c>
       <c r="G7">
-        <v>0.0008101194687429776</v>
+        <v>0.002437032837048254</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4679537587770568</v>
+        <v>0.1356529029091149</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.0928712228379</v>
+        <v>0.7273306176414991</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.652948864564962</v>
+        <v>2.671533669139137</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5742805499537553</v>
+        <v>0.1926998711949182</v>
       </c>
       <c r="C8">
-        <v>0.07207636383800775</v>
+        <v>0.04641167250347422</v>
       </c>
       <c r="D8">
-        <v>0.05481411524396407</v>
+        <v>0.02966780408092973</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5700893825058131</v>
+        <v>0.7701445409289747</v>
       </c>
       <c r="G8">
-        <v>0.0008048840167429879</v>
+        <v>0.002433801571348831</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.553828733150155</v>
+        <v>0.1635129140663309</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.601597502976873</v>
+        <v>0.849586131242674</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.724567192320052</v>
+        <v>2.668393823117356</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7637952301037956</v>
+        <v>0.2509570734005138</v>
       </c>
       <c r="C9">
-        <v>0.07757190476554143</v>
+        <v>0.04930614197981953</v>
       </c>
       <c r="D9">
-        <v>0.06600973950630618</v>
+        <v>0.03394910246603189</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6597260861835608</v>
+        <v>0.7819442100709537</v>
       </c>
       <c r="G9">
-        <v>0.0007950997499446156</v>
+        <v>0.002428090583965134</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7206670760262597</v>
+        <v>0.2177264288051219</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.688964159642509</v>
+        <v>1.093840125834618</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.89681186990083</v>
+        <v>2.673866028040379</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9028970564829706</v>
+        <v>0.2937231989873226</v>
       </c>
       <c r="C10">
-        <v>0.0813142602254473</v>
+        <v>0.05138723970470238</v>
       </c>
       <c r="D10">
-        <v>0.07404872455964551</v>
+        <v>0.03703157141753621</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7331891525527396</v>
+        <v>0.7928066154587015</v>
       </c>
       <c r="G10">
-        <v>0.0007881359468479931</v>
+        <v>0.00242427182472807</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8421953881298236</v>
+        <v>0.2572800361339205</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.578516946010694</v>
+        <v>1.276471696067603</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.047225927937376</v>
+        <v>2.685017499365387</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9661649003064952</v>
+        <v>0.313166991513782</v>
       </c>
       <c r="C11">
-        <v>0.08292188404848133</v>
+        <v>0.05232356054605702</v>
       </c>
       <c r="D11">
-        <v>0.07765448005790176</v>
+        <v>0.03841984229455164</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7686555750521791</v>
+        <v>0.7982272655330007</v>
       </c>
       <c r="G11">
-        <v>0.0007849968787052575</v>
+        <v>0.002422615552596724</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.897202407649047</v>
+        <v>0.2752096001141524</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.013969130091112</v>
+        <v>1.36034162384216</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.122012347914392</v>
+        <v>2.691648342438157</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9901201890658911</v>
+        <v>0.3205278845686621</v>
       </c>
       <c r="C12">
-        <v>0.08351347423170807</v>
+        <v>0.05267657841026363</v>
       </c>
       <c r="D12">
-        <v>0.07901118374640959</v>
+        <v>0.03894350204611641</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7824193572673153</v>
+        <v>0.80034903446969</v>
       </c>
       <c r="G12">
-        <v>0.0007838102004913593</v>
+        <v>0.002421999929765803</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9179841230426007</v>
+        <v>0.2819894808135359</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.184561402798366</v>
+        <v>1.392222276758872</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.151364015835753</v>
+        <v>2.694383987834897</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9849611658850677</v>
+        <v>0.3189426837244866</v>
       </c>
       <c r="C13">
-        <v>0.08338689699092328</v>
+        <v>0.05260061933270066</v>
       </c>
       <c r="D13">
-        <v>0.07871940752667683</v>
+        <v>0.03883081429879809</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7794395586990674</v>
+        <v>0.7998889982797692</v>
       </c>
       <c r="G13">
-        <v>0.0007840657227444533</v>
+        <v>0.002422132001384973</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9135107332598125</v>
+        <v>0.2805297498345851</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.147543619877766</v>
+        <v>1.385350710354274</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.144994646728833</v>
+        <v>2.693784814080715</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9681357906752055</v>
+        <v>0.3137726205771685</v>
       </c>
       <c r="C14">
-        <v>0.08297092301988584</v>
+        <v>0.05235263484077279</v>
       </c>
       <c r="D14">
-        <v>0.07776628096819138</v>
+        <v>0.03846296538353045</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7697810004361259</v>
+        <v>0.7984004391939408</v>
       </c>
       <c r="G14">
-        <v>0.0007848992235889949</v>
+        <v>0.002422564673356263</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8989131616857264</v>
+        <v>0.275767581445109</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.027881073550361</v>
+        <v>1.362961997961719</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.124405710031539</v>
+        <v>2.691868898768433</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9578293058634983</v>
+        <v>0.310605525760792</v>
       </c>
       <c r="C15">
-        <v>0.08271376604859171</v>
+        <v>0.05220053418321413</v>
       </c>
       <c r="D15">
-        <v>0.07718128036384542</v>
+        <v>0.03823737933788607</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7639095449135311</v>
+        <v>0.7974976557930802</v>
       </c>
       <c r="G15">
-        <v>0.0007854099578246908</v>
+        <v>0.002422831202396217</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8899651255152037</v>
+        <v>0.2728493430440153</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.955370169084603</v>
+        <v>1.349264235165819</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.111932553260402</v>
+        <v>2.690724625939538</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8987620802822676</v>
+        <v>0.2924522421780864</v>
       </c>
       <c r="C16">
-        <v>0.08120700991632646</v>
+        <v>0.05132583544740044</v>
       </c>
       <c r="D16">
-        <v>0.07381194335164309</v>
+        <v>0.03694056024778547</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.730915728781639</v>
+        <v>0.7924620218295786</v>
       </c>
       <c r="G16">
-        <v>0.0007883415019593035</v>
+        <v>0.002424381688601152</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8385943438980945</v>
+        <v>0.256106973732841</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.550778969964014</v>
+        <v>1.27100711754774</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.042476030631121</v>
+        <v>2.68461556446249</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8625233129222067</v>
+        <v>0.2813126814608324</v>
       </c>
       <c r="C17">
-        <v>0.0802561606260781</v>
+        <v>0.0507865390062392</v>
       </c>
       <c r="D17">
-        <v>0.07173101181469121</v>
+        <v>0.03614139920014026</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7112253300135336</v>
+        <v>0.7894956978067427</v>
       </c>
       <c r="G17">
-        <v>0.0007901459287587592</v>
+        <v>0.002425353538329299</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8070042633595591</v>
+        <v>0.2458194238918878</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.311255525671413</v>
+        <v>1.223206392013182</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.001573459730054</v>
+        <v>2.681267352691378</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8416789543015</v>
+        <v>0.274904520717655</v>
       </c>
       <c r="C18">
-        <v>0.07970059640957317</v>
+        <v>0.05047537605648955</v>
       </c>
       <c r="D18">
-        <v>0.07052939560433202</v>
+        <v>0.03568043139031829</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7000900117191264</v>
+        <v>0.7878346495289748</v>
       </c>
       <c r="G18">
-        <v>0.0007911866503829654</v>
+        <v>0.002425920138814075</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.788809114592766</v>
+        <v>0.2398963444489226</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.17629263512066</v>
+        <v>1.195786578714745</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.978638249097088</v>
+        <v>2.679488155223169</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8346212856164072</v>
+        <v>0.2727346747107902</v>
       </c>
       <c r="C19">
-        <v>0.07951109684407953</v>
+        <v>0.05036985599905819</v>
       </c>
       <c r="D19">
-        <v>0.07012177294826927</v>
+        <v>0.03552413160436174</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6963513447667822</v>
+        <v>0.7872799885536068</v>
       </c>
       <c r="G19">
-        <v>0.0007915395691885105</v>
+        <v>0.002426113290356894</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7826443904026661</v>
+        <v>0.2378898848169229</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.131045231153536</v>
+        <v>1.186515172724967</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.970971010421579</v>
+        <v>2.678910909323008</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8663810749131926</v>
+        <v>0.2824986118147876</v>
       </c>
       <c r="C20">
-        <v>0.08035829906761194</v>
+        <v>0.05084404921775132</v>
       </c>
       <c r="D20">
-        <v>0.07195302741706655</v>
+        <v>0.03622660729035232</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7133014722864317</v>
+        <v>0.789806798896791</v>
       </c>
       <c r="G20">
-        <v>0.0007899535619364428</v>
+        <v>0.002425249295008724</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8103697561951861</v>
+        <v>0.2469151709665454</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.336454886385539</v>
+        <v>1.228287159903431</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.005865671110087</v>
+        <v>2.681608597742354</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.973077912556704</v>
+        <v>0.3152912530867411</v>
       </c>
       <c r="C21">
-        <v>0.08309360456987491</v>
+        <v>0.05242551629638825</v>
       </c>
       <c r="D21">
-        <v>0.07804648697445771</v>
+        <v>0.03857106744277417</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7726085604223982</v>
+        <v>0.7988357887702762</v>
       </c>
       <c r="G21">
-        <v>0.0007846543689626373</v>
+        <v>0.002422437273653183</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9032022192246814</v>
+        <v>0.277166611896007</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.062862265793981</v>
+        <v>1.369534764003674</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.130424149297482</v>
+        <v>2.692425546308243</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.042791042761507</v>
+        <v>0.3367109617565518</v>
       </c>
       <c r="C22">
-        <v>0.08477863073485281</v>
+        <v>0.0534500573044312</v>
       </c>
       <c r="D22">
-        <v>0.08197710744568809</v>
+        <v>0.04009134965431826</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8133359189283027</v>
+        <v>0.8051395217436124</v>
       </c>
       <c r="G22">
-        <v>0.0007812013912663924</v>
+        <v>0.002420666874381601</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.963585152273879</v>
+        <v>0.2968811564415148</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.571708562726158</v>
+        <v>1.462556663086772</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.217913719098703</v>
+        <v>2.700805014397531</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.005586780827059</v>
+        <v>0.3252801412206452</v>
       </c>
       <c r="C23">
-        <v>0.0838901667388825</v>
+        <v>0.05290408529724999</v>
       </c>
       <c r="D23">
-        <v>0.07988457696330187</v>
+        <v>0.03928105409489291</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7914042742044245</v>
+        <v>0.801738192663862</v>
       </c>
       <c r="G23">
-        <v>0.0007830442158567163</v>
+        <v>0.002421605621212474</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9313879787458177</v>
+        <v>0.2863644743963505</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.296480839665122</v>
+        <v>1.412841828489334</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.170618078470739</v>
+        <v>2.696212655196518</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8646370124470195</v>
+        <v>0.2819624647449643</v>
       </c>
       <c r="C24">
-        <v>0.08031214977290801</v>
+        <v>0.05081805231728964</v>
       </c>
       <c r="D24">
-        <v>0.07185267045426968</v>
+        <v>0.03618808944258944</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7123622751261678</v>
+        <v>0.7896660120254921</v>
       </c>
       <c r="G24">
-        <v>0.0007900405204706364</v>
+        <v>0.002425296398888708</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8088483209339188</v>
+        <v>0.2464198105557358</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.325053803949785</v>
+        <v>1.225989953857507</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.003923363631344</v>
+        <v>2.681453866975033</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7125588927459034</v>
+        <v>0.2352017568592544</v>
       </c>
       <c r="C25">
-        <v>0.07612850697915263</v>
+        <v>0.04853090527000603</v>
       </c>
       <c r="D25">
-        <v>0.06301083703070987</v>
+        <v>0.03280183929796721</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6342607923609336</v>
+        <v>0.7783678407808026</v>
       </c>
       <c r="G25">
-        <v>0.0007977014591029592</v>
+        <v>0.002429569029591101</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6757056793528022</v>
+        <v>0.2031073748764101</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.381960651549207</v>
+        <v>1.027236340030839</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.846380771880177</v>
+        <v>2.671136376070137</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_117/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2007517892934061</v>
+        <v>0.600491979873027</v>
       </c>
       <c r="C2">
-        <v>0.04681665022438608</v>
+        <v>0.07286126528966719</v>
       </c>
       <c r="D2">
-        <v>0.03026650136908415</v>
+        <v>0.05637968420543871</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7715222594088544</v>
+        <v>0.5817188912135407</v>
       </c>
       <c r="G2">
-        <v>0.002432968549593463</v>
+        <v>0.0008035003103684519</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1710339568456334</v>
+        <v>0.5769921065477206</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8830009790449651</v>
+        <v>2.744434653506659</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.668328567852228</v>
+        <v>1.745976067982298</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1773979687425253</v>
+        <v>0.5244327926735934</v>
       </c>
       <c r="C3">
-        <v>0.04563686530794797</v>
+        <v>0.07056289916549474</v>
       </c>
       <c r="D3">
-        <v>0.02852255846774199</v>
+        <v>0.05182084024017541</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7677976138000417</v>
+        <v>0.5487122527590245</v>
       </c>
       <c r="G3">
-        <v>0.002435432073174725</v>
+        <v>0.0008075516631708135</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1491899232329814</v>
+        <v>0.5096959186109444</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7864211113928548</v>
+        <v>2.336139061283518</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.669398983641855</v>
+        <v>1.686185635461612</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1630576458209703</v>
+        <v>0.477657776937022</v>
       </c>
       <c r="C4">
-        <v>0.04490388609007567</v>
+        <v>0.06911850465769476</v>
       </c>
       <c r="D4">
-        <v>0.02743928019702224</v>
+        <v>0.04899229120280779</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7659605768555195</v>
+        <v>0.5295867021942797</v>
       </c>
       <c r="G4">
-        <v>0.002437023900148529</v>
+        <v>0.000810105271300128</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1357270085283773</v>
+        <v>0.4681823662164248</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7276523867524674</v>
+        <v>2.094183296434636</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.671518554298189</v>
+        <v>1.653122383511032</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1572140724234572</v>
+        <v>0.4585751026428539</v>
       </c>
       <c r="C5">
-        <v>0.04460308260204471</v>
+        <v>0.06852261900050394</v>
       </c>
       <c r="D5">
-        <v>0.02699473200942748</v>
+        <v>0.04783257610377234</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7653249729295908</v>
+        <v>0.5220604620592297</v>
       </c>
       <c r="G5">
-        <v>0.002437692567007301</v>
+        <v>0.0008111633005112306</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1302285189044454</v>
+        <v>0.4512167879950937</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7038312175626658</v>
+        <v>1.997407996117389</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.672749496696582</v>
+        <v>1.640508988409408</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1562437789893778</v>
+        <v>0.4554050596274379</v>
       </c>
       <c r="C6">
-        <v>0.04455300855323685</v>
+        <v>0.06842326113817165</v>
       </c>
       <c r="D6">
-        <v>0.02692072877599117</v>
+        <v>0.04763958877314423</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7652262527364542</v>
+        <v>0.5208263615500996</v>
       </c>
       <c r="G6">
-        <v>0.002437804807559507</v>
+        <v>0.0008113400590187836</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1293147735785425</v>
+        <v>0.4483967377771307</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6998832577335889</v>
+        <v>1.981438736370421</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.672976056740566</v>
+        <v>1.638464904712976</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1629788358104065</v>
+        <v>0.4774005119982689</v>
       </c>
       <c r="C7">
-        <v>0.04489983781989793</v>
+        <v>0.06911049652450174</v>
       </c>
       <c r="D7">
-        <v>0.02743329738133582</v>
+        <v>0.04897667905542136</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7659515475085072</v>
+        <v>0.5294841416490854</v>
       </c>
       <c r="G7">
-        <v>0.002437032837048254</v>
+        <v>0.000810119468684318</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1356529029091149</v>
+        <v>0.4679537587770426</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7273306176414991</v>
+        <v>2.0928712228379</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.671533669139137</v>
+        <v>1.652948864564905</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1926998711949182</v>
+        <v>0.5742805499538122</v>
       </c>
       <c r="C8">
-        <v>0.04641167250347422</v>
+        <v>0.07207636383776617</v>
       </c>
       <c r="D8">
-        <v>0.02966780408092973</v>
+        <v>0.05481411524409197</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7701445409289747</v>
+        <v>0.5700893825058131</v>
       </c>
       <c r="G8">
-        <v>0.002433801571348831</v>
+        <v>0.000804884016742872</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1635129140663309</v>
+        <v>0.5538287331501266</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.849586131242674</v>
+        <v>2.601597502976844</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.668393823117356</v>
+        <v>1.724567192320052</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2509570734005138</v>
+        <v>0.763795230103824</v>
       </c>
       <c r="C9">
-        <v>0.04930614197981953</v>
+        <v>0.07757190476507958</v>
       </c>
       <c r="D9">
-        <v>0.03394910246603189</v>
+        <v>0.06600973950641276</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7819442100709537</v>
+        <v>0.6597260861835537</v>
       </c>
       <c r="G9">
-        <v>0.002428090583965134</v>
+        <v>0.0007950997498857642</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2177264288051219</v>
+        <v>0.7206670760263307</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.093840125834618</v>
+        <v>3.688964159642509</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.673866028040379</v>
+        <v>1.896811869900887</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2937231989873226</v>
+        <v>0.9028970564830843</v>
       </c>
       <c r="C10">
-        <v>0.05138723970470238</v>
+        <v>0.08131426022510624</v>
       </c>
       <c r="D10">
-        <v>0.03703157141753621</v>
+        <v>0.07404872455987288</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7928066154587015</v>
+        <v>0.7331891525527396</v>
       </c>
       <c r="G10">
-        <v>0.00242427182472807</v>
+        <v>0.0007881359468750699</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2572800361339205</v>
+        <v>0.84219538812971</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.276471696067603</v>
+        <v>4.578516946010666</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.685017499365387</v>
+        <v>2.047225927937262</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.313166991513782</v>
+        <v>0.9661649003064952</v>
       </c>
       <c r="C11">
-        <v>0.05232356054605702</v>
+        <v>0.08292188404860923</v>
       </c>
       <c r="D11">
-        <v>0.03841984229455164</v>
+        <v>0.07765448005806519</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7982272655330007</v>
+        <v>0.7686555750521649</v>
       </c>
       <c r="G11">
-        <v>0.002422615552596724</v>
+        <v>0.0007849968787044598</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2752096001141524</v>
+        <v>0.8972024076490754</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.36034162384216</v>
+        <v>5.013969130091141</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.691648342438157</v>
+        <v>2.122012347914392</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3205278845686621</v>
+        <v>0.9901201890660047</v>
       </c>
       <c r="C12">
-        <v>0.05267657841026363</v>
+        <v>0.08351347423125333</v>
       </c>
       <c r="D12">
-        <v>0.03894350204611641</v>
+        <v>0.07901118374675775</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.80034903446969</v>
+        <v>0.7824193572673153</v>
       </c>
       <c r="G12">
-        <v>0.002421999929765803</v>
+        <v>0.0007838102004917899</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2819894808135359</v>
+        <v>0.9179841230426007</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.392222276758872</v>
+        <v>5.184561402798352</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.694383987834897</v>
+        <v>2.151364015835753</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3189426837244866</v>
+        <v>0.9849611658850392</v>
       </c>
       <c r="C13">
-        <v>0.05260061933270066</v>
+        <v>0.08338689699115776</v>
       </c>
       <c r="D13">
-        <v>0.03883081429879809</v>
+        <v>0.07871940752667683</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7998889982797692</v>
+        <v>0.7794395586990817</v>
       </c>
       <c r="G13">
-        <v>0.002422132001384973</v>
+        <v>0.0007840657227438929</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2805297498345851</v>
+        <v>0.9135107332598125</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.385350710354274</v>
+        <v>5.147543619877823</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.693784814080715</v>
+        <v>2.144994646728861</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3137726205771685</v>
+        <v>0.9681357906753476</v>
       </c>
       <c r="C14">
-        <v>0.05235263484077279</v>
+        <v>0.08297092301998532</v>
       </c>
       <c r="D14">
-        <v>0.03846296538353045</v>
+        <v>0.07776628096807769</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7984004391939408</v>
+        <v>0.7697810004361259</v>
       </c>
       <c r="G14">
-        <v>0.002422564673356263</v>
+        <v>0.000784899223559757</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.275767581445109</v>
+        <v>0.8989131616856412</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.362961997961719</v>
+        <v>5.027881073550304</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.691868898768433</v>
+        <v>2.124405710031454</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.310605525760792</v>
+        <v>0.9578293058635268</v>
       </c>
       <c r="C15">
-        <v>0.05220053418321413</v>
+        <v>0.08271376604892566</v>
       </c>
       <c r="D15">
-        <v>0.03823737933788607</v>
+        <v>0.07718128036366778</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7974976557930802</v>
+        <v>0.7639095449135311</v>
       </c>
       <c r="G15">
-        <v>0.002422831202396217</v>
+        <v>0.0007854099577673326</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2728493430440153</v>
+        <v>0.8899651255151753</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.349264235165819</v>
+        <v>4.955370169084588</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.690724625939538</v>
+        <v>2.111932553260345</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2924522421780864</v>
+        <v>0.898762080282097</v>
       </c>
       <c r="C16">
-        <v>0.05132583544740044</v>
+        <v>0.08120700991597829</v>
       </c>
       <c r="D16">
-        <v>0.03694056024778547</v>
+        <v>0.07381194335176389</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7924620218295786</v>
+        <v>0.730915728781639</v>
       </c>
       <c r="G16">
-        <v>0.002424381688601152</v>
+        <v>0.0007883415019304471</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.256106973732841</v>
+        <v>0.8385943438981229</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.27100711754774</v>
+        <v>4.550778969964043</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.68461556446249</v>
+        <v>2.042476030631121</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2813126814608324</v>
+        <v>0.8625233129219509</v>
       </c>
       <c r="C17">
-        <v>0.0507865390062392</v>
+        <v>0.08025616062597152</v>
       </c>
       <c r="D17">
-        <v>0.03614139920014026</v>
+        <v>0.07173101181486174</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7894956978067427</v>
+        <v>0.7112253300135194</v>
       </c>
       <c r="G17">
-        <v>0.002425353538329299</v>
+        <v>0.0007901459288432045</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2458194238918878</v>
+        <v>0.8070042633594312</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.223206392013182</v>
+        <v>4.311255525671385</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.681267352691378</v>
+        <v>2.001573459729997</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.274904520717655</v>
+        <v>0.8416789543016137</v>
       </c>
       <c r="C18">
-        <v>0.05047537605648955</v>
+        <v>0.07970059640992844</v>
       </c>
       <c r="D18">
-        <v>0.03568043139031829</v>
+        <v>0.07052939560444571</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7878346495289748</v>
+        <v>0.7000900117191406</v>
       </c>
       <c r="G18">
-        <v>0.002425920138814075</v>
+        <v>0.0007911866503811577</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2398963444489226</v>
+        <v>0.7888091145926808</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.195786578714745</v>
+        <v>4.176292635120674</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.679488155223169</v>
+        <v>1.97863824909706</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2727346747107902</v>
+        <v>0.8346212856164357</v>
       </c>
       <c r="C19">
-        <v>0.05036985599905819</v>
+        <v>0.07951109684408664</v>
       </c>
       <c r="D19">
-        <v>0.03552413160436174</v>
+        <v>0.07012177294826927</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7872799885536068</v>
+        <v>0.6963513447667822</v>
       </c>
       <c r="G19">
-        <v>0.002426113290356894</v>
+        <v>0.0007915395691895344</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2378898848169229</v>
+        <v>0.782644390402595</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.186515172724967</v>
+        <v>4.131045231153593</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.678910909323008</v>
+        <v>1.970971010421493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2824986118147876</v>
+        <v>0.8663810749131926</v>
       </c>
       <c r="C20">
-        <v>0.05084404921775132</v>
+        <v>0.08035829906773984</v>
       </c>
       <c r="D20">
-        <v>0.03622660729035232</v>
+        <v>0.07195302741701681</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.789806798896791</v>
+        <v>0.7133014722864459</v>
       </c>
       <c r="G20">
-        <v>0.002425249295008724</v>
+        <v>0.000789953561993868</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2469151709665454</v>
+        <v>0.8103697561950014</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.228287159903431</v>
+        <v>4.336454886385567</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.681608597742354</v>
+        <v>2.005865671109945</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3152912530867411</v>
+        <v>0.9730779125566755</v>
       </c>
       <c r="C21">
-        <v>0.05242551629638825</v>
+        <v>0.0830936045701165</v>
       </c>
       <c r="D21">
-        <v>0.03857106744277417</v>
+        <v>0.07804648697445771</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7988357887702762</v>
+        <v>0.772608560422384</v>
       </c>
       <c r="G21">
-        <v>0.002422437273653183</v>
+        <v>0.0007846543689909361</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.277166611896007</v>
+        <v>0.9032022192246529</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.369534764003674</v>
+        <v>5.062862265793967</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.692425546308243</v>
+        <v>2.130424149297482</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3367109617565518</v>
+        <v>1.042791042761394</v>
       </c>
       <c r="C22">
-        <v>0.0534500573044312</v>
+        <v>0.08477863073474623</v>
       </c>
       <c r="D22">
-        <v>0.04009134965431826</v>
+        <v>0.08197710744579467</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8051395217436124</v>
+        <v>0.8133359189283169</v>
       </c>
       <c r="G22">
-        <v>0.002420666874381601</v>
+        <v>0.0007812013912359359</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2968811564415148</v>
+        <v>0.9635851522739642</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.462556663086772</v>
+        <v>5.571708562726144</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.700805014397531</v>
+        <v>2.217913719098732</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3252801412206452</v>
+        <v>1.005586780827173</v>
       </c>
       <c r="C23">
-        <v>0.05290408529724999</v>
+        <v>0.08389016673889671</v>
       </c>
       <c r="D23">
-        <v>0.03928105409489291</v>
+        <v>0.07988457696342266</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.801738192663862</v>
+        <v>0.7914042742044245</v>
       </c>
       <c r="G23">
-        <v>0.002421605621212474</v>
+        <v>0.0007830442158578668</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2863644743963505</v>
+        <v>0.931387978745903</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.412841828489334</v>
+        <v>5.296480839665122</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.696212655196518</v>
+        <v>2.17061807847071</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2819624647449643</v>
+        <v>0.8646370124470479</v>
       </c>
       <c r="C24">
-        <v>0.05081805231728964</v>
+        <v>0.08031214977278012</v>
       </c>
       <c r="D24">
-        <v>0.03618808944258944</v>
+        <v>0.07185267045431232</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7896660120254921</v>
+        <v>0.7123622751261678</v>
       </c>
       <c r="G24">
-        <v>0.002425296398888708</v>
+        <v>0.000790040520440821</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2464198105557358</v>
+        <v>0.8088483209339472</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.225989953857507</v>
+        <v>4.325053803949771</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.681453866975033</v>
+        <v>2.003923363631344</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2352017568592544</v>
+        <v>0.7125588927460171</v>
       </c>
       <c r="C25">
-        <v>0.04853090527000603</v>
+        <v>0.07612850697929474</v>
       </c>
       <c r="D25">
-        <v>0.03280183929796721</v>
+        <v>0.06301083703058907</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7783678407808026</v>
+        <v>0.6342607923609265</v>
       </c>
       <c r="G25">
-        <v>0.002429569029591101</v>
+        <v>0.0007977014590736282</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2031073748764101</v>
+        <v>0.6757056793528022</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.027236340030839</v>
+        <v>3.381960651549221</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.671136376070137</v>
+        <v>1.846380771880206</v>
       </c>
     </row>
   </sheetData>
